--- a/testData/Opencart_LoginData.xlsx
+++ b/testData/Opencart_LoginData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\eclipse-workspace\OpenCart\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCF90533-876D-485C-A93F-EBF27B42E4A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EADD9DB-D33E-4E9E-905B-45AC3EF44F23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11040" xr2:uid="{1F2D179E-37D2-4BC0-88A9-F5C135B87DA5}"/>
   </bookViews>
@@ -505,7 +505,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -545,7 +545,7 @@
         <v>7</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="21" x14ac:dyDescent="0.35">
@@ -556,7 +556,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="21" x14ac:dyDescent="0.35">
